--- a/data/trans_orig/P16B13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5822960C-F442-4084-BA21-40618D5E0890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54B69848-FBC5-4512-9276-9396D4F6A5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{071BD770-354F-446A-A26C-7E89AA051B51}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F921E16A-E31A-445B-8B33-25793050361A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="217">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -133,43 +133,43 @@
     <t>93,12%</t>
   </si>
   <si>
-    <t>77,97%</t>
+    <t>78,93%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>81,42%</t>
+    <t>80,84%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>22,03%</t>
+    <t>21,07%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>18,58%</t>
+    <t>19,16%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -199,64 +199,64 @@
     <t>93,44%</t>
   </si>
   <si>
-    <t>67,67%</t>
+    <t>68,59%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>32,33%</t>
+    <t>31,41%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>90,16%</t>
+    <t>89,79%</t>
   </si>
   <si>
     <t>98,34%</t>
@@ -265,19 +265,19 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>4,75%</t>
@@ -286,16 +286,16 @@
     <t>1,66%</t>
   </si>
   <si>
-    <t>9,84%</t>
+    <t>10,21%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -313,7 +313,7 @@
     <t>89,23%</t>
   </si>
   <si>
-    <t>61,47%</t>
+    <t>49,07%</t>
   </si>
   <si>
     <t>29,27%</t>
@@ -325,7 +325,7 @@
     <t>10,77%</t>
   </si>
   <si>
-    <t>38,53%</t>
+    <t>50,93%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -343,7 +343,7 @@
     <t>95,01%</t>
   </si>
   <si>
-    <t>84,12%</t>
+    <t>82,53%</t>
   </si>
   <si>
     <t>96,1%</t>
@@ -352,13 +352,13 @@
     <t>97,9%</t>
   </si>
   <si>
-    <t>93,36%</t>
+    <t>92,71%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>15,88%</t>
+    <t>17,47%</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -367,112 +367,109 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>6,64%</t>
+    <t>7,29%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>78,87%</t>
+    <t>78,09%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>88,37%</t>
+    <t>83,93%</t>
   </si>
   <si>
     <t>95,43%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>21,13%</t>
+    <t>21,91%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>11,63%</t>
+    <t>16,07%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>91,02%</t>
+    <t>89,98%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>8,98%</t>
+    <t>10,02%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>85,44%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,8%</t>
+    <t>95,75%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -481,19 +478,16 @@
     <t>95,71%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>14,56%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -502,16 +496,16 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,2%</t>
+    <t>4,25%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2015 (Tasa respuesta: 3,23%)</t>
@@ -526,7 +520,7 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>54,08%</t>
+    <t>49,6%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -535,13 +529,13 @@
     <t>95,58%</t>
   </si>
   <si>
-    <t>79,78%</t>
+    <t>79,16%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>45,92%</t>
+    <t>50,4%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -550,163 +544,151 @@
     <t>4,42%</t>
   </si>
   <si>
-    <t>20,22%</t>
+    <t>20,84%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>72,09%</t>
+    <t>73,06%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>27,91%</t>
+    <t>26,94%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>72,86%</t>
+    <t>72,56%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>88,54%</t>
+    <t>87,13%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>27,14%</t>
+    <t>27,44%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>11,46%</t>
+    <t>12,87%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>79,64%</t>
+    <t>79,07%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>87,73%</t>
+    <t>87,42%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>88,75%</t>
+    <t>88,74%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>20,36%</t>
+    <t>20,93%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>12,27%</t>
+    <t>12,58%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>11,25%</t>
+    <t>11,26%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055DBED1-B8B9-4430-AD40-2F3BB559B241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7355AAC-AC49-47ED-AAFF-F081348BF39D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2181,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24769C11-890C-476F-9B8D-7843E1406BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D4EF7E-6BF2-48A3-8BA6-43D5CED2AE0E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3086,7 +3068,7 @@
         <v>141</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>171</v>
@@ -3095,13 +3077,13 @@
         <v>187136</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M19" s="7">
         <v>284</v>
@@ -3110,13 +3092,13 @@
         <v>316174</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3113,13 @@
         <v>11226</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3146,13 +3128,13 @@
         <v>2959</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -3161,13 +3143,13 @@
         <v>14185</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,7 +3226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A828C8-42E4-4808-A1AC-345B562FCEC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D46142D-6EF0-4393-99AD-0BEFB4C78D50}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3261,7 +3243,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3386,7 +3368,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3440,7 +3422,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3523,10 +3505,10 @@
         <v>16147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3541,7 +3523,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3553,10 +3535,10 @@
         <v>39999</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3574,13 +3556,13 @@
         <v>1851</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3595,7 +3577,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3604,13 +3586,13 @@
         <v>1851</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,10 +3660,10 @@
         <v>26524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -3693,13 +3675,13 @@
         <v>31656</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -3708,13 +3690,13 @@
         <v>58181</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3711,13 @@
         <v>1655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3744,13 +3726,13 @@
         <v>2783</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3759,13 +3741,13 @@
         <v>4437</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,10 +3815,10 @@
         <v>20837</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3863,10 +3845,10 @@
         <v>48559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3884,13 +3866,13 @@
         <v>1166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3914,13 +3896,13 @@
         <v>1166</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,10 +3970,10 @@
         <v>22855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4003,10 +3985,10 @@
         <v>43800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4018,10 +4000,10 @@
         <v>66656</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4039,13 +4021,13 @@
         <v>947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4054,13 +4036,13 @@
         <v>1194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4069,13 +4051,13 @@
         <v>2140</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4125,13 @@
         <v>92292</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -4161,10 +4143,10 @@
         <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>204</v>
@@ -4173,13 +4155,13 @@
         <v>227273</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4176,13 @@
         <v>5618</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4212,10 +4194,10 @@
         <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4224,13 +4206,13 @@
         <v>9594</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54B69848-FBC5-4512-9276-9396D4F6A5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEAAD6CC-E5E3-4E85-BA50-1801A3466EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F921E16A-E31A-445B-8B33-25793050361A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E78A1CB0-E1A4-4428-98F5-34682CCBD30A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="221">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -106,7 +106,7 @@
     <t>18,74%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -127,52 +127,52 @@
     <t>9,49%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>78,93%</t>
+    <t>77,32%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>80,84%</t>
+    <t>79,28%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>21,07%</t>
+    <t>22,68%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>19,16%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -199,55 +199,55 @@
     <t>93,44%</t>
   </si>
   <si>
-    <t>68,59%</t>
+    <t>71,75%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>31,41%</t>
+    <t>28,25%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>88,34%</t>
+    <t>87,23%</t>
   </si>
   <si>
     <t>98,93%</t>
@@ -256,19 +256,19 @@
     <t>95,25%</t>
   </si>
   <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>4,14%</t>
@@ -277,25 +277,25 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>11,66%</t>
+    <t>12,77%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -313,7 +313,7 @@
     <t>89,23%</t>
   </si>
   <si>
-    <t>49,07%</t>
+    <t>47,94%</t>
   </si>
   <si>
     <t>29,27%</t>
@@ -325,7 +325,7 @@
     <t>10,77%</t>
   </si>
   <si>
-    <t>50,93%</t>
+    <t>52,06%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -343,7 +343,7 @@
     <t>95,01%</t>
   </si>
   <si>
-    <t>82,53%</t>
+    <t>83,97%</t>
   </si>
   <si>
     <t>96,1%</t>
@@ -352,13 +352,13 @@
     <t>97,9%</t>
   </si>
   <si>
-    <t>92,71%</t>
+    <t>93,16%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>17,47%</t>
+    <t>16,03%</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -367,109 +367,112 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>7,29%</t>
+    <t>6,84%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>78,09%</t>
+    <t>78,22%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>83,93%</t>
+    <t>85,73%</t>
   </si>
   <si>
     <t>95,43%</t>
   </si>
   <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>21,91%</t>
+    <t>21,78%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>16,07%</t>
+    <t>14,27%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>89,98%</t>
+    <t>89,69%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>10,02%</t>
+    <t>10,31%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>85,44%</t>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,75%</t>
+    <t>95,81%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -478,16 +481,19 @@
     <t>95,71%</t>
   </si>
   <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>14,56%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -496,19 +502,19 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,25%</t>
+    <t>4,19%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2015 (Tasa respuesta: 3,23%)</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -520,7 +526,7 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>49,6%</t>
+    <t>49,92%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -529,13 +535,13 @@
     <t>95,58%</t>
   </si>
   <si>
-    <t>79,16%</t>
+    <t>79,48%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>50,4%</t>
+    <t>50,08%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -544,151 +550,157 @@
     <t>4,42%</t>
   </si>
   <si>
-    <t>20,84%</t>
+    <t>20,52%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>73,06%</t>
+    <t>73,85%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>82,33%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>26,94%</t>
+    <t>26,15%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>17,67%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>72,56%</t>
+    <t>73,3%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>87,13%</t>
+    <t>86,88%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>27,44%</t>
+    <t>26,7%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>12,87%</t>
+    <t>13,12%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>79,07%</t>
+    <t>79,51%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>87,42%</t>
+    <t>86,56%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>88,74%</t>
+    <t>88,72%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>20,93%</t>
+    <t>20,49%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>12,58%</t>
+    <t>13,44%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>11,26%</t>
+    <t>11,28%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7355AAC-AC49-47ED-AAFF-F081348BF39D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF2CF52-4AF2-4062-9F6E-C0DB91447F3B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2163,7 +2175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D4EF7E-6BF2-48A3-8BA6-43D5CED2AE0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF9E2BC-8B14-4D5F-B1F4-4CBEC3AFC114}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3068,7 +3080,7 @@
         <v>141</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="H19" s="7">
         <v>171</v>
@@ -3077,13 +3089,13 @@
         <v>187136</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M19" s="7">
         <v>284</v>
@@ -3092,13 +3104,13 @@
         <v>316174</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3125,13 @@
         <v>11226</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3128,13 +3140,13 @@
         <v>2959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -3143,13 +3155,13 @@
         <v>14185</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,7 +3238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D46142D-6EF0-4393-99AD-0BEFB4C78D50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70B3642-5262-4E04-91E4-AB31F2989DE3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3243,7 +3255,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3368,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3422,7 +3434,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3505,10 +3517,10 @@
         <v>16147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3523,7 +3535,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3535,10 +3547,10 @@
         <v>39999</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3556,13 +3568,13 @@
         <v>1851</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3577,7 +3589,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3586,13 +3598,13 @@
         <v>1851</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,10 +3672,10 @@
         <v>26524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -3675,13 +3687,13 @@
         <v>31656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -3690,13 +3702,13 @@
         <v>58181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3723,13 @@
         <v>1655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3726,13 +3738,13 @@
         <v>2783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3741,10 +3753,10 @@
         <v>4437</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>184</v>
@@ -4158,10 +4170,10 @@
         <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4188,13 @@
         <v>5618</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4194,10 +4206,10 @@
         <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4206,13 +4218,13 @@
         <v>9594</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEAAD6CC-E5E3-4E85-BA50-1801A3466EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE842BA5-76B0-4B9E-A0B6-280A57763924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E78A1CB0-E1A4-4428-98F5-34682CCBD30A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54644269-44C7-468C-ABC9-68B112604F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="223">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -133,43 +133,43 @@
     <t>93,12%</t>
   </si>
   <si>
-    <t>77,32%</t>
+    <t>77,97%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>79,28%</t>
+    <t>81,42%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>22,68%</t>
+    <t>22,03%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>20,72%</t>
+    <t>18,58%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -199,103 +199,103 @@
     <t>93,44%</t>
   </si>
   <si>
-    <t>71,75%</t>
+    <t>67,67%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>28,25%</t>
+    <t>32,33%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -313,7 +313,7 @@
     <t>89,23%</t>
   </si>
   <si>
-    <t>47,94%</t>
+    <t>61,47%</t>
   </si>
   <si>
     <t>29,27%</t>
@@ -325,7 +325,7 @@
     <t>10,77%</t>
   </si>
   <si>
-    <t>52,06%</t>
+    <t>38,53%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -343,7 +343,7 @@
     <t>95,01%</t>
   </si>
   <si>
-    <t>83,97%</t>
+    <t>84,12%</t>
   </si>
   <si>
     <t>96,1%</t>
@@ -352,13 +352,13 @@
     <t>97,9%</t>
   </si>
   <si>
-    <t>93,16%</t>
+    <t>93,36%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>16,03%</t>
+    <t>15,88%</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -367,70 +367,70 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>6,84%</t>
+    <t>6,64%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>78,22%</t>
+    <t>78,87%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>85,73%</t>
+    <t>88,37%</t>
   </si>
   <si>
     <t>95,43%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>21,78%</t>
+    <t>21,13%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>14,27%</t>
+    <t>11,63%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>89,69%</t>
+    <t>91,02%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>84,24%</t>
+    <t>83,26%</t>
   </si>
   <si>
     <t>96,54%</t>
@@ -439,16 +439,16 @@
     <t>15,79%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>10,31%</t>
+    <t>8,98%</t>
   </si>
   <si>
     <t>7,9%</t>
@@ -457,22 +457,22 @@
     <t>3,46%</t>
   </si>
   <si>
-    <t>15,76%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,81%</t>
+    <t>95,8%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -481,19 +481,19 @@
     <t>95,71%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -502,16 +502,16 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,19%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
@@ -526,7 +526,7 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>49,92%</t>
+    <t>54,08%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -535,13 +535,13 @@
     <t>95,58%</t>
   </si>
   <si>
-    <t>79,48%</t>
+    <t>79,78%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>50,08%</t>
+    <t>45,92%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -550,157 +550,163 @@
     <t>4,42%</t>
   </si>
   <si>
-    <t>20,52%</t>
+    <t>20,22%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>73,85%</t>
+    <t>72,09%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>82,33%</t>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>26,15%</t>
+    <t>27,91%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>17,67%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>73,3%</t>
+    <t>72,86%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>86,88%</t>
+    <t>88,54%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>26,7%</t>
+    <t>27,14%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>13,12%</t>
+    <t>11,46%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>79,51%</t>
+    <t>79,64%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>86,56%</t>
+    <t>87,73%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>88,72%</t>
+    <t>88,75%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>20,49%</t>
+    <t>20,36%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>13,44%</t>
+    <t>12,27%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>11,28%</t>
+    <t>11,25%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF2CF52-4AF2-4062-9F6E-C0DB91447F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFBD5A2-9725-47E6-83B2-EF1AEFE79EBF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2175,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF9E2BC-8B14-4D5F-B1F4-4CBEC3AFC114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DC22AA-9ED6-4F83-92A4-F4E9CBC5FD75}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3238,7 +3244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70B3642-5262-4E04-91E4-AB31F2989DE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F86B26-96FA-4DE6-A9EF-DAAD166A02FA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3708,7 +3714,7 @@
         <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3729,13 @@
         <v>1655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3738,13 +3744,13 @@
         <v>2783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3753,13 +3759,13 @@
         <v>4437</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,10 +3833,10 @@
         <v>20837</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3857,10 +3863,10 @@
         <v>48559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3878,13 +3884,13 @@
         <v>1166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3908,13 +3914,13 @@
         <v>1166</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,10 +3988,10 @@
         <v>22855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -3997,10 +4003,10 @@
         <v>43800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4012,10 +4018,10 @@
         <v>66656</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4033,13 +4039,13 @@
         <v>947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4048,13 +4054,13 @@
         <v>1194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4063,13 +4069,13 @@
         <v>2140</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4143,13 @@
         <v>92292</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -4155,10 +4161,10 @@
         <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>204</v>
@@ -4167,13 +4173,13 @@
         <v>227273</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4194,13 @@
         <v>5618</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4206,10 +4212,10 @@
         <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4218,13 +4224,13 @@
         <v>9594</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE842BA5-76B0-4B9E-A0B6-280A57763924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A652E88-C82A-4227-AA7F-7FACAA1A469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54644269-44C7-468C-ABC9-68B112604F7E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D29FF896-E039-45A4-899E-CA24486D137C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="214">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,16 +76,16 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>55,59%</t>
+    <t>79,25%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -97,34 +97,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -172,7 +151,7 @@
     <t>14,87%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -304,319 +283,313 @@
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2012 (Tasa respuesta: 4,56%)</t>
   </si>
   <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>96,18%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
   </si>
   <si>
     <t>2,34%</t>
@@ -1118,8 +1091,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFBD5A2-9725-47E6-83B2-EF1AEFE79EBF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118ACAE2-81A1-43BE-B3D0-FC10166F6A75}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1236,10 +1209,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>3243</v>
+        <v>8027</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1251,10 +1224,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>5130</v>
+        <v>19276</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1266,10 +1239,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>8373</v>
+        <v>27303</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1338,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>3243</v>
+        <v>8027</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1353,10 +1326,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7">
-        <v>5130</v>
+        <v>19276</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1368,10 +1341,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7">
-        <v>8373</v>
+        <v>27303</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1391,49 +1364,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>4784</v>
+        <v>27297</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>14146</v>
+        <v>28098</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>18930</v>
+        <v>55394</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,49 +1415,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2016</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1809</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>3825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1493,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>4784</v>
+        <v>29313</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1508,10 +1481,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>14146</v>
+        <v>29907</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1523,10 +1496,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N9" s="7">
-        <v>18930</v>
+        <v>59219</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1540,55 +1513,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>27297</v>
+        <v>24886</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>33</v>
+      </c>
+      <c r="I10" s="7">
+        <v>31237</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7">
-        <v>28098</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>58</v>
+      </c>
+      <c r="N10" s="7">
+        <v>56122</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>52</v>
-      </c>
-      <c r="N10" s="7">
-        <v>55394</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1597,46 +1570,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>2016</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1809</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3825</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -1648,10 +1621,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>29313</v>
+        <v>24886</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1663,10 +1636,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>29907</v>
+        <v>31237</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1678,10 +1651,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N12" s="7">
-        <v>59219</v>
+        <v>56122</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1701,49 +1674,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>24886</v>
+        <v>21726</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>31237</v>
+        <v>35187</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>56122</v>
+        <v>56914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,49 +1725,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1526</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>3863</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>5389</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,10 +1776,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
-        <v>24886</v>
+        <v>23252</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1818,10 +1791,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I15" s="7">
-        <v>31237</v>
+        <v>39050</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1833,10 +1806,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N15" s="7">
-        <v>56122</v>
+        <v>62303</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1850,55 +1823,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7">
-        <v>21726</v>
+        <v>81936</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="I16" s="7">
-        <v>35187</v>
+        <v>113797</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="N16" s="7">
-        <v>56914</v>
+        <v>195734</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,49 +1880,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>1526</v>
+        <v>3541</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>3863</v>
+        <v>5672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>5389</v>
+        <v>9213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D18" s="7">
-        <v>23252</v>
+        <v>85477</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1973,10 +1946,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>39050</v>
+        <v>119469</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1988,10 +1961,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="N18" s="7">
-        <v>62303</v>
+        <v>204947</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2004,171 +1977,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>81</v>
-      </c>
-      <c r="D19" s="7">
-        <v>81936</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="7">
-        <v>114</v>
-      </c>
-      <c r="I19" s="7">
-        <v>113797</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" s="7">
-        <v>195</v>
-      </c>
-      <c r="N19" s="7">
-        <v>195734</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3541</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="A19" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="7">
-        <v>6</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5672</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M20" s="7">
-        <v>9</v>
-      </c>
-      <c r="N20" s="7">
-        <v>9213</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>84</v>
-      </c>
-      <c r="D21" s="7">
-        <v>85477</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>120</v>
-      </c>
-      <c r="I21" s="7">
-        <v>119469</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>204</v>
-      </c>
-      <c r="N21" s="7">
-        <v>204947</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2181,8 +1998,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DC22AA-9ED6-4F83-92A4-F4E9CBC5FD75}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F55E9E0-E68D-44EB-86C6-E76EF37155DB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2198,7 +2015,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2299,46 +2116,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>1789</v>
+        <v>30977</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>4345</v>
+        <v>32385</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="N4" s="7">
-        <v>6135</v>
+        <v>63362</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2356,13 +2173,13 @@
         <v>740</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2377,7 +2194,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2386,13 +2203,13 @@
         <v>740</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,10 +2218,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>2529</v>
+        <v>31717</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2416,10 +2233,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>4345</v>
+        <v>32385</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2431,10 +2248,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="N6" s="7">
-        <v>6875</v>
+        <v>64102</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2454,49 +2271,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>29187</v>
+        <v>37171</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>28040</v>
+        <v>54026</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="N7" s="7">
-        <v>57227</v>
+        <v>91197</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,19 +2322,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1952</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2532,22 +2349,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1952</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,10 +2373,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7">
-        <v>29187</v>
+        <v>39123</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2571,10 +2388,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>28040</v>
+        <v>54026</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2586,10 +2403,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="N9" s="7">
-        <v>57227</v>
+        <v>93149</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2603,55 +2420,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>37171</v>
+        <v>25577</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>54026</v>
+        <v>36867</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>91197</v>
+        <v>62443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,46 +2480,46 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1952</v>
+        <v>1914</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1078</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>1952</v>
+        <v>2992</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,25 +2528,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7">
+        <v>27491</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>35</v>
       </c>
-      <c r="D12" s="7">
-        <v>39123</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>48</v>
-      </c>
       <c r="I12" s="7">
-        <v>54026</v>
+        <v>37945</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2741,10 +2558,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="N12" s="7">
-        <v>93149</v>
+        <v>65435</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2764,49 +2581,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>25577</v>
+        <v>35313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>36867</v>
+        <v>63859</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>62443</v>
+        <v>99172</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,49 +2632,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6620</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
-        <v>1914</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
       <c r="I14" s="7">
-        <v>1078</v>
+        <v>1881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>2992</v>
+        <v>8501</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,10 +2683,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7">
-        <v>27491</v>
+        <v>41933</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2881,10 +2698,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I15" s="7">
-        <v>37945</v>
+        <v>65740</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2896,10 +2713,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="N15" s="7">
-        <v>65435</v>
+        <v>107673</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2913,55 +2730,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7">
-        <v>35313</v>
+        <v>129037</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H16" s="7">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="I16" s="7">
-        <v>63859</v>
+        <v>187136</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="N16" s="7">
-        <v>99172</v>
+        <v>316174</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,49 +2787,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>6620</v>
+        <v>11226</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1881</v>
+        <v>2959</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>8501</v>
+        <v>14185</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,10 +2838,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="D18" s="7">
-        <v>41933</v>
+        <v>140263</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3036,10 +2853,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="I18" s="7">
-        <v>65740</v>
+        <v>190095</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3051,10 +2868,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="N18" s="7">
-        <v>107673</v>
+        <v>330359</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3067,171 +2884,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>113</v>
-      </c>
-      <c r="D19" s="7">
-        <v>129037</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="7">
-        <v>171</v>
-      </c>
-      <c r="I19" s="7">
-        <v>187136</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="7">
-        <v>284</v>
-      </c>
-      <c r="N19" s="7">
-        <v>316174</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
-        <v>11226</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2959</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M20" s="7">
-        <v>13</v>
-      </c>
-      <c r="N20" s="7">
-        <v>14185</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>123</v>
-      </c>
-      <c r="D21" s="7">
-        <v>140263</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>174</v>
-      </c>
-      <c r="I21" s="7">
-        <v>190095</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>297</v>
-      </c>
-      <c r="N21" s="7">
-        <v>330359</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>86</v>
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3244,8 +2905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F86B26-96FA-4DE6-A9EF-DAAD166A02FA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2239AE09-0007-4B88-BD9C-92616D1CB171}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3261,7 +2922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3362,49 +3023,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>5927</v>
+        <v>22075</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>7950</v>
+        <v>31802</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>13877</v>
+        <v>53876</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,19 +3074,19 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1851</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3440,22 +3101,22 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1851</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,10 +3125,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7">
-        <v>5927</v>
+        <v>23926</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3479,10 +3140,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>7950</v>
+        <v>31802</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3494,10 +3155,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N6" s="7">
-        <v>13877</v>
+        <v>55727</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3517,49 +3178,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>16147</v>
+        <v>26524</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>23852</v>
+        <v>31656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N7" s="7">
-        <v>39999</v>
+        <v>58181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,46 +3232,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1851</v>
+        <v>1655</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2783</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>1851</v>
+        <v>4437</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,10 +3280,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7">
-        <v>17998</v>
+        <v>28179</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3634,10 +3295,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>23852</v>
+        <v>34439</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3649,10 +3310,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N9" s="7">
-        <v>41850</v>
+        <v>62618</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3666,55 +3327,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>26524</v>
+        <v>20837</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>31656</v>
+        <v>27723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>58181</v>
+        <v>48559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,46 +3387,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1655</v>
+        <v>1166</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2783</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>183</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>4437</v>
+        <v>1166</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,10 +3435,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>28179</v>
+        <v>22003</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3789,10 +3450,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I12" s="7">
-        <v>34439</v>
+        <v>27723</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3804,10 +3465,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N12" s="7">
-        <v>62618</v>
+        <v>49725</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3827,46 +3488,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>20837</v>
+        <v>22855</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>27723</v>
+        <v>43800</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>48559</v>
+        <v>66656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3881,46 +3542,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1166</v>
+        <v>947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1166</v>
+        <v>2140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,10 +3590,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
-        <v>22003</v>
+        <v>23802</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3944,10 +3605,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>27723</v>
+        <v>44994</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3959,10 +3620,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N15" s="7">
-        <v>49725</v>
+        <v>68796</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3976,55 +3637,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7">
-        <v>22855</v>
+        <v>92292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="I16" s="7">
-        <v>43800</v>
+        <v>134981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c r="N16" s="7">
-        <v>66656</v>
+        <v>227273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,49 +3694,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>947</v>
+        <v>5618</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>1194</v>
+        <v>3976</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>2140</v>
+        <v>9594</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,10 +3745,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D18" s="7">
-        <v>23802</v>
+        <v>97910</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -4099,10 +3760,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="I18" s="7">
-        <v>44994</v>
+        <v>138957</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -4114,10 +3775,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="N18" s="7">
-        <v>68796</v>
+        <v>236867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -4130,171 +3791,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>87</v>
-      </c>
-      <c r="D19" s="7">
-        <v>92292</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>117</v>
-      </c>
-      <c r="I19" s="7">
-        <v>134981</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" s="7">
-        <v>204</v>
-      </c>
-      <c r="N19" s="7">
-        <v>227273</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7">
-        <v>5618</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3976</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8</v>
-      </c>
-      <c r="N20" s="7">
-        <v>9594</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>91</v>
-      </c>
-      <c r="D21" s="7">
-        <v>97910</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>121</v>
-      </c>
-      <c r="I21" s="7">
-        <v>138957</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>212</v>
-      </c>
-      <c r="N21" s="7">
-        <v>236867</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>86</v>
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
